--- a/Documentation/Projektmanagement/Stundenplanung/_excel/Stundenplanung_Pathfinder.xlsx
+++ b/Documentation/Projektmanagement/Stundenplanung/_excel/Stundenplanung_Pathfinder.xlsx
@@ -1,26 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freddy\Code\GitHub\Unity_Pathfinder\Documentation\Projektmanagement\Stundenplanung\_excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E145E336-50DA-466D-AE52-470BC5290EC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Thema</t>
+  </si>
+  <si>
+    <t>Stunden</t>
+  </si>
+  <si>
+    <t>Konzepte und Grid</t>
+  </si>
+  <si>
+    <t>Grid System</t>
+  </si>
+  <si>
+    <t>Vorbereitung für Menü</t>
+  </si>
+  <si>
+    <t>Neuanfang mit neuem Ansatz</t>
+  </si>
+  <si>
+    <t>Neues Grid System mit Farben</t>
+  </si>
+  <si>
+    <t>Breitensuche und PriorityQueue</t>
+  </si>
+  <si>
+    <t>PriorityQueue und Dijkstra Algorithmus</t>
+  </si>
+  <si>
+    <t>A* Suche und optimierungen</t>
+  </si>
+  <si>
+    <t>Vorbereitung der UI</t>
+  </si>
+  <si>
+    <t>Anlegen des Hauptmenüs mit Scripten</t>
+  </si>
+  <si>
+    <t>Fertigstellen des Hauptmenüs</t>
+  </si>
+  <si>
+    <t>Vorbereiten der Ingame UI</t>
+  </si>
+  <si>
+    <t>IngameUI und Wiki Content</t>
+  </si>
+  <si>
+    <t>Menüs und Overlays fertigstellen</t>
+  </si>
+  <si>
+    <t>Summe der benötigten Stunden:</t>
+  </si>
+  <si>
+    <t>Abschließen des Projekts</t>
+  </si>
+  <si>
+    <t>Aufwandsberechnung:</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +105,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +140,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +424,218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>43962</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>43963</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>43964</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>43990</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>43991</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>43992</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>43993</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>43994</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>44012</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>44020</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>44022</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>44025</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>44026</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>44027</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <f>SUM(H5:H19)</f>
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>